--- a/Data/Excel/Proto/World.xlsx
+++ b/Data/Excel/Proto/World.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9A7B2-2254-4288-B0A9-D91D0E3C820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C38B32-806C-4527-8EF6-04AA609A973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="4185" windowWidth="22980" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1062,8 +1062,7 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>

--- a/Data/Excel/Proto/World.xlsx
+++ b/Data/Excel/Proto/World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C38B32-806C-4527-8EF6-04AA609A973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B5B35-0E01-42A3-B59D-2B3015C0C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>enum:EWorldType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NORMAL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>#별 도달 보상</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EWorldType:mk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1086,22 +1086,22 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1118,22 +1118,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1192,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1228,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1264,13 +1264,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1300,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1336,13 +1336,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1372,13 +1372,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1408,13 +1408,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1444,13 +1444,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1480,13 +1480,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1516,13 +1516,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>10</v>
